--- a/EXCEL/Ejemplos/ejemplo_import_completo.xlsx
+++ b/EXCEL/Ejemplos/ejemplo_import_completo.xlsx
@@ -20,15 +20,15 @@
     <t>num_control</t>
   </si>
   <si>
+    <t>apellido_paterno</t>
+  </si>
+  <si>
+    <t>apellido_materno</t>
+  </si>
+  <si>
     <t>nombre</t>
   </si>
   <si>
-    <t>apellido_paterno</t>
-  </si>
-  <si>
-    <t>apellido_materno</t>
-  </si>
-  <si>
     <t>genero</t>
   </si>
   <si>
@@ -62,15 +62,15 @@
     <t>S23001234</t>
   </si>
   <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>López</t>
+  </si>
+  <si>
     <t>Juan</t>
   </si>
   <si>
-    <t>Perez</t>
-  </si>
-  <si>
-    <t>López</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -95,15 +95,15 @@
     <t>S23005678</t>
   </si>
   <si>
+    <t>Gómez</t>
+  </si>
+  <si>
+    <t>Hernández</t>
+  </si>
+  <si>
     <t>María</t>
   </si>
   <si>
-    <t>Gómez</t>
-  </si>
-  <si>
-    <t>Hernández</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -125,13 +125,13 @@
     <t>S23007890</t>
   </si>
   <si>
+    <t>Ramírez</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
     <t>Carlos</t>
-  </si>
-  <si>
-    <t>Ramírez</t>
-  </si>
-  <si>
-    <t>Santos</t>
   </si>
   <si>
     <t>2001-01-30</t>
